--- a/REGULAR/TREASURY/DELA CRUZ EVANGELINE.xlsx
+++ b/REGULAR/TREASURY/DELA CRUZ EVANGELINE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79171C8-E1D6-44F5-A7CE-2733FE70237D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D42053-FC11-466C-8D44-D55C07E9A9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
   <si>
     <t>PERIOD</t>
   </si>
@@ -370,6 +362,18 @@
   </si>
   <si>
     <t>11/24, 12/1,2,5</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2/2,9/2023</t>
+  </si>
+  <si>
+    <t>BDAY 2/27/23</t>
+  </si>
+  <si>
+    <t>1/26,27/2023</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1066,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1391,12 +1395,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A81" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A87" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1563,7 +1567,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>197.42</v>
+        <v>199.92</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1573,7 +1577,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>245</v>
+        <v>243.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3427,7 +3431,9 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="49" t="s">
+        <v>106</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3443,40 +3449,62 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="A95" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="39"/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H95" s="39">
+        <v>2</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="A96" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="39"/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H96" s="39">
+        <v>2</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
@@ -3488,10 +3516,14 @@
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>44986</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3507,7 +3539,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45017</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3523,7 +3557,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45047</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3539,7 +3575,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45078</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3555,7 +3593,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45108</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3571,7 +3611,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45139</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3587,7 +3629,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45170</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3603,7 +3647,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45200</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3619,7 +3665,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45231</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3635,7 +3683,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45261</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3651,7 +3701,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45292</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3667,7 +3719,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45323</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3683,7 +3737,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45352</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3699,7 +3755,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45383</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3715,7 +3773,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45413</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3731,7 +3791,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45444</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3747,7 +3809,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45474</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3763,7 +3827,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45505</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3779,7 +3845,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>45536</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3795,7 +3863,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>45566</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3811,7 +3881,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>45597</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3827,7 +3899,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>45627</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3843,7 +3917,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>45658</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3859,7 +3935,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>45689</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3875,7 +3953,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>45717</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3891,7 +3971,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>45748</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3907,7 +3989,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>45778</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3923,7 +4007,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>45809</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -3939,7 +4025,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>45839</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -3955,7 +4043,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>45870</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3971,7 +4061,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>45901</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -3987,7 +4079,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>45931</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -4003,7 +4097,9 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
+      <c r="A130" s="40">
+        <v>45962</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -4019,7 +4115,9 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
+      <c r="A131" s="40">
+        <v>45992</v>
+      </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -4035,20 +4133,40 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+      <c r="A132" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="40">
+        <v>46054</v>
+      </c>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4064,7 +4182,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -4081,8 +4199,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETT B. SUSA&amp;U
+                                            OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/REGULAR/TREASURY/DELA CRUZ EVANGELINE.xlsx
+++ b/REGULAR/TREASURY/DELA CRUZ EVANGELINE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D42053-FC11-466C-8D44-D55C07E9A9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1561E-4C15-4FD3-A0EB-664C4C717F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>PERIOD</t>
   </si>
@@ -374,6 +374,18 @@
   </si>
   <si>
     <t>1/26,27/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/8-10/2023</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1032,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1066,25 +1077,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1391,16 +1402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A87" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A87" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1567,7 +1578,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>199.92</v>
+        <v>200.17</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1577,7 +1588,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>243.5</v>
+        <v>241.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3453,7 +3464,7 @@
         <v>44927</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C95" s="13">
         <v>1.25</v>
@@ -3479,7 +3490,7 @@
         <v>44958</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -3503,7 +3514,7 @@
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3524,27 +3535,37 @@
       <c r="A98" s="40">
         <v>44986</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
+      <c r="B98" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="39"/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H98" s="39">
+        <v>3</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="20" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B99" s="20"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C99" s="13"/>
-      <c r="D99" s="39"/>
+      <c r="D99" s="39">
+        <v>1</v>
+      </c>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
       <c r="G99" s="13" t="str">
@@ -3554,11 +3575,13 @@
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="48">
+        <v>45012</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3576,7 +3599,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3594,7 +3617,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3612,7 +3635,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3630,7 +3653,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3648,7 +3671,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3666,7 +3689,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3684,7 +3707,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3702,7 +3725,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3720,7 +3743,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3738,7 +3761,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3756,7 +3779,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3774,7 +3797,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3792,7 +3815,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3810,7 +3833,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3828,7 +3851,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3846,7 +3869,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3864,7 +3887,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3882,7 +3905,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3900,7 +3923,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3918,7 +3941,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3936,7 +3959,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3954,7 +3977,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3972,7 +3995,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3990,7 +4013,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4008,7 +4031,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4026,7 +4049,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4044,7 +4067,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4062,7 +4085,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4080,7 +4103,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4098,7 +4121,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4116,7 +4139,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4134,7 +4157,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4152,21 +4175,39 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40">
         <v>46054</v>
       </c>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4183,10 +4224,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4209,7 +4250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
